--- a/sort_table.xlsx
+++ b/sort_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Model8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Model9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>min_BIC</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>sub_seq</t>
         </is>
@@ -493,259 +503,301 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>082237</t>
+          <t>082203</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.14901842641657</v>
+        <v>258.089576659396</v>
       </c>
       <c r="C2" t="n">
-        <v>69.32740487072809</v>
+        <v>262.2698574819873</v>
       </c>
       <c r="D2" t="n">
-        <v>69.02607590369716</v>
+        <v>262.9748504032962</v>
       </c>
       <c r="E2" t="n">
-        <v>74.19549654859239</v>
+        <v>266.9720037457416</v>
       </c>
       <c r="F2" t="n">
-        <v>73.83894387833539</v>
+        <v>267.426698678943</v>
       </c>
       <c r="G2" t="n">
-        <v>78.99265855499297</v>
+        <v>271.5211758733064</v>
       </c>
       <c r="H2" t="n">
-        <v>65.88154562515012</v>
+        <v>262.6954854511047</v>
       </c>
       <c r="I2" t="n">
-        <v>259.9188987033612</v>
+        <v>26.4259162617471</v>
       </c>
       <c r="J2" t="n">
-        <v>64.14901842641657</v>
+        <v>31.61887308150776</v>
       </c>
       <c r="K2" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L2" t="n">
+        <v>26.4259162617471</v>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>082250</t>
+          <t>082226</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.0531688056762</v>
+        <v>258.52820747244</v>
       </c>
       <c r="C3" t="n">
-        <v>110.1938158077136</v>
+        <v>263.699269506812</v>
       </c>
       <c r="D3" t="n">
-        <v>116.6355617548513</v>
+        <v>263.4853198249912</v>
       </c>
       <c r="E3" t="n">
-        <v>102.1937435899617</v>
+        <v>268.6556266212254</v>
       </c>
       <c r="F3" t="n">
-        <v>124.5058018633649</v>
+        <v>267.8617703315564</v>
       </c>
       <c r="G3" t="n">
-        <v>120.0728763594718</v>
+        <v>273.0240287614276</v>
       </c>
       <c r="H3" t="n">
-        <v>81.69520321216797</v>
+        <v>263.3542144792524</v>
       </c>
       <c r="I3" t="n">
-        <v>259.9188987033612</v>
+        <v>36.29702900881234</v>
       </c>
       <c r="J3" t="n">
-        <v>81.69520321216797</v>
+        <v>41.27009727505583</v>
       </c>
       <c r="K3" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L3" t="n">
+        <v>36.29702900881234</v>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>082236</t>
+          <t>082213</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.14008147367957</v>
+        <v>259.6779161988301</v>
       </c>
       <c r="C4" t="n">
-        <v>93.95142566169102</v>
+        <v>262.9318751740649</v>
       </c>
       <c r="D4" t="n">
-        <v>93.6444939828592</v>
+        <v>258.0495068692193</v>
       </c>
       <c r="E4" t="n">
-        <v>97.4913457091514</v>
+        <v>261.4157582439884</v>
       </c>
       <c r="F4" t="n">
-        <v>97.59446179436875</v>
+        <v>263.2247087990385</v>
       </c>
       <c r="G4" t="n">
-        <v>101.7332602063369</v>
+        <v>266.5940911948603</v>
       </c>
       <c r="H4" t="n">
-        <v>95.88602795801465</v>
+        <v>264.7242055044076</v>
       </c>
       <c r="I4" t="n">
-        <v>259.9188987033612</v>
+        <v>48.57154058577721</v>
       </c>
       <c r="J4" t="n">
-        <v>91.14008147367957</v>
+        <v>53.65919020478231</v>
       </c>
       <c r="K4" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L4" t="n">
+        <v>48.57154058577721</v>
+      </c>
+      <c r="M4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>082247</t>
+          <t>082237</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.6339252734462</v>
+        <v>64.14901842641656</v>
       </c>
       <c r="C5" t="n">
-        <v>99.24766192035744</v>
+        <v>69.32740487072809</v>
       </c>
       <c r="D5" t="n">
-        <v>99.78927233003456</v>
+        <v>69.02607596769855</v>
       </c>
       <c r="E5" t="n">
-        <v>104.4190141376728</v>
+        <v>74.19549654571573</v>
       </c>
       <c r="F5" t="n">
-        <v>95.54133157050543</v>
+        <v>73.83894398425264</v>
       </c>
       <c r="G5" t="n">
-        <v>100.5700051901149</v>
+        <v>78.99265856584096</v>
       </c>
       <c r="H5" t="n">
-        <v>99.63787363391749</v>
+        <v>65.88154562515011</v>
       </c>
       <c r="I5" t="n">
-        <v>259.9188987033612</v>
+        <v>69.34197527730684</v>
       </c>
       <c r="J5" t="n">
-        <v>94.6339252734462</v>
+        <v>74.52036172161849</v>
       </c>
       <c r="K5" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L5" t="n">
+        <v>64.14901842641656</v>
+      </c>
+      <c r="M5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>082201</t>
+          <t>082224</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.7245010814443</v>
+        <v>258.5285209377049</v>
       </c>
       <c r="C6" t="n">
-        <v>113.1295268603147</v>
+        <v>262.2768887789412</v>
       </c>
       <c r="D6" t="n">
-        <v>107.4167977511907</v>
+        <v>261.6554783124358</v>
       </c>
       <c r="E6" t="n">
-        <v>109.2656646511063</v>
+        <v>265.2783831018668</v>
       </c>
       <c r="F6" t="n">
-        <v>106.7692788668016</v>
+        <v>266.5112744935474</v>
       </c>
       <c r="G6" t="n">
-        <v>107.5705812074011</v>
+        <v>269.9803089183046</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3241817899331</v>
+        <v>263.5212863254415</v>
       </c>
       <c r="I6" t="n">
-        <v>259.9188987033612</v>
+        <v>69.84213449124432</v>
       </c>
       <c r="J6" t="n">
-        <v>106.7692788668016</v>
+        <v>74.55029349338116</v>
       </c>
       <c r="K6" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L6" t="n">
+        <v>69.84213449124432</v>
+      </c>
+      <c r="M6" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>082225</t>
+          <t>082214</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117.7999749434354</v>
+        <v>251.641680801097</v>
       </c>
       <c r="C7" t="n">
-        <v>118.0323381297428</v>
+        <v>255.7594689050987</v>
       </c>
       <c r="D7" t="n">
-        <v>110.7437392117753</v>
+        <v>255.3848080385891</v>
       </c>
       <c r="E7" t="n">
-        <v>115.3983819123649</v>
+        <v>259.2051139583478</v>
       </c>
       <c r="F7" t="n">
-        <v>112.821914596271</v>
+        <v>260.4242055683055</v>
       </c>
       <c r="G7" t="n">
-        <v>117.8178266074785</v>
+        <v>264.2867082048843</v>
       </c>
       <c r="H7" t="n">
-        <v>122.8249726190627</v>
+        <v>256.1420474199633</v>
       </c>
       <c r="I7" t="n">
-        <v>259.9188987033612</v>
+        <v>77.04122185361035</v>
       </c>
       <c r="J7" t="n">
-        <v>110.7437392117753</v>
+        <v>82.01682203156325</v>
       </c>
       <c r="K7" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L7" t="n">
+        <v>77.04122185361035</v>
+      </c>
+      <c r="M7" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>082232</t>
+          <t>082250</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131.8575988513901</v>
+        <v>115.137186964831</v>
       </c>
       <c r="C8" t="n">
-        <v>136.4539048793192</v>
+        <v>84.12548980870814</v>
       </c>
       <c r="D8" t="n">
-        <v>122.0093944139536</v>
+        <v>114.0130128797069</v>
       </c>
       <c r="E8" t="n">
-        <v>127.0892225257386</v>
+        <v>81.43734339568405</v>
       </c>
       <c r="F8" t="n">
-        <v>122.9622963857843</v>
+        <v>118.7006606750318</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1539620165459</v>
+        <v>86.62628037222638</v>
       </c>
       <c r="H8" t="n">
-        <v>116.0493437364094</v>
+        <v>80.0746203021539</v>
       </c>
       <c r="I8" t="n">
-        <v>259.9188987033612</v>
+        <v>89.12565602380509</v>
       </c>
       <c r="J8" t="n">
-        <v>116.0493437364094</v>
+        <v>77.08309485559596</v>
       </c>
       <c r="K8" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L8" t="n">
+        <v>77.08309485559596</v>
+      </c>
+      <c r="M8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -756,1550 +808,1802 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>137.1059772874483</v>
+        <v>120.1129126579229</v>
       </c>
       <c r="C9" t="n">
-        <v>138.9988766062876</v>
+        <v>113.84492380088</v>
       </c>
       <c r="D9" t="n">
-        <v>119.1715651839688</v>
+        <v>119.8151970232797</v>
       </c>
       <c r="E9" t="n">
-        <v>117.883124841331</v>
+        <v>116.5748150134301</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3816103395088</v>
+        <v>124.7558354452146</v>
       </c>
       <c r="G9" t="n">
-        <v>189.31870492651</v>
+        <v>121.7397018351886</v>
       </c>
       <c r="H9" t="n">
-        <v>118.7363009363376</v>
+        <v>99.68050319711128</v>
       </c>
       <c r="I9" t="n">
-        <v>259.9188987033612</v>
+        <v>90.97553739142428</v>
       </c>
       <c r="J9" t="n">
-        <v>117.883124841331</v>
+        <v>95.85394126922876</v>
       </c>
       <c r="K9" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L9" t="n">
+        <v>90.97553739142428</v>
+      </c>
+      <c r="M9" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>082210</t>
+          <t>082236</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.781507595519</v>
+        <v>91.14008147367961</v>
       </c>
       <c r="C10" t="n">
-        <v>140.3127071768901</v>
+        <v>93.95142566169112</v>
       </c>
       <c r="D10" t="n">
-        <v>141.150568690556</v>
+        <v>93.6444939828588</v>
       </c>
       <c r="E10" t="n">
-        <v>130.2503397904659</v>
+        <v>97.49134570915135</v>
       </c>
       <c r="F10" t="n">
-        <v>146.2772373083286</v>
+        <v>97.59446179436861</v>
       </c>
       <c r="G10" t="n">
-        <v>135.4275423337878</v>
+        <v>101.7332602063368</v>
       </c>
       <c r="H10" t="n">
-        <v>170.9665452514062</v>
+        <v>95.88602795766199</v>
       </c>
       <c r="I10" t="n">
-        <v>259.9188987033612</v>
+        <v>96.33303832871617</v>
       </c>
       <c r="J10" t="n">
-        <v>130.2503397904659</v>
+        <v>99.14438251259764</v>
       </c>
       <c r="K10" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L10" t="n">
+        <v>91.14008147367961</v>
+      </c>
+      <c r="M10" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>082230</t>
+          <t>082212</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.0142447006815</v>
+        <v>258.664435854952</v>
       </c>
       <c r="C11" t="n">
-        <v>147.8455471312513</v>
+        <v>262.3253555871106</v>
       </c>
       <c r="D11" t="n">
-        <v>131.0059637008004</v>
+        <v>262.8753659845268</v>
       </c>
       <c r="E11" t="n">
-        <v>135.9429827775373</v>
+        <v>266.2742127219797</v>
       </c>
       <c r="F11" t="n">
-        <v>135.3961455145439</v>
+        <v>266.28089945204</v>
       </c>
       <c r="G11" t="n">
-        <v>140.3164435992516</v>
+        <v>269.4733129232631</v>
       </c>
       <c r="H11" t="n">
-        <v>136.0976320157271</v>
+        <v>263.673526972231</v>
       </c>
       <c r="I11" t="n">
-        <v>259.9188987033612</v>
+        <v>92.7062584985445</v>
       </c>
       <c r="J11" t="n">
-        <v>131.0059637008004</v>
+        <v>97.81727251301103</v>
       </c>
       <c r="K11" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L11" t="n">
+        <v>92.7062584985445</v>
+      </c>
+      <c r="M11" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>082244</t>
+          <t>082247</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>140.9935878323943</v>
+        <v>94.62561254161858</v>
       </c>
       <c r="C12" t="n">
-        <v>153.3063973262532</v>
+        <v>99.22771237680519</v>
       </c>
       <c r="D12" t="n">
-        <v>138.4860053025966</v>
+        <v>99.78927233003915</v>
       </c>
       <c r="E12" t="n">
-        <v>145.0445859481087</v>
+        <v>104.4153962988898</v>
       </c>
       <c r="F12" t="n">
-        <v>151.5212135276745</v>
+        <v>95.54133157050552</v>
       </c>
       <c r="G12" t="n">
-        <v>193.1355523265925</v>
+        <v>100.5700051901156</v>
       </c>
       <c r="H12" t="n">
-        <v>135.1634526733055</v>
+        <v>99.26787800409797</v>
       </c>
       <c r="I12" t="n">
-        <v>259.9188987033612</v>
+        <v>99.81854829085229</v>
       </c>
       <c r="J12" t="n">
-        <v>135.1634526733055</v>
+        <v>104.4206731779561</v>
       </c>
       <c r="K12" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L12" t="n">
+        <v>94.62561254161858</v>
+      </c>
+      <c r="M12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>082234</t>
+          <t>082201</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.9344414509708</v>
+        <v>114.7245010814443</v>
       </c>
       <c r="C13" t="n">
-        <v>146.2153062256725</v>
+        <v>113.1295268603147</v>
       </c>
       <c r="D13" t="n">
-        <v>149.8130167257804</v>
+        <v>107.4167977511908</v>
       </c>
       <c r="E13" t="n">
-        <v>149.2394687613004</v>
+        <v>106.8507145121737</v>
       </c>
       <c r="F13" t="n">
-        <v>154.2049461518789</v>
+        <v>105.075302689483</v>
       </c>
       <c r="G13" t="n">
-        <v>153.924228513711</v>
+        <v>103.7618603943315</v>
       </c>
       <c r="H13" t="n">
-        <v>145.0080493383369</v>
+        <v>109.3241817899311</v>
       </c>
       <c r="I13" t="n">
-        <v>259.9188987033612</v>
+        <v>119.9174579403574</v>
       </c>
       <c r="J13" t="n">
-        <v>145.0080493383369</v>
+        <v>118.322483711205</v>
       </c>
       <c r="K13" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L13" t="n">
+        <v>103.7618603943315</v>
+      </c>
+      <c r="M13" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>082219</t>
+          <t>082225</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>149.2697329734527</v>
+        <v>117.7999749434354</v>
       </c>
       <c r="C14" t="n">
-        <v>149.9618939015628</v>
+        <v>118.0323381297426</v>
       </c>
       <c r="D14" t="n">
-        <v>177.822601226407</v>
+        <v>110.7437392117759</v>
       </c>
       <c r="E14" t="n">
-        <v>162.7936502673135</v>
+        <v>115.3983819123647</v>
       </c>
       <c r="F14" t="n">
-        <v>182.7428292913325</v>
+        <v>112.8219145962712</v>
       </c>
       <c r="G14" t="n">
-        <v>198.9351732703713</v>
+        <v>117.8178266074785</v>
       </c>
       <c r="H14" t="n">
-        <v>160.9292337171576</v>
+        <v>122.8249726190624</v>
       </c>
       <c r="I14" t="n">
-        <v>259.9188987033612</v>
+        <v>121.3146337414041</v>
       </c>
       <c r="J14" t="n">
-        <v>149.2697329734527</v>
+        <v>121.7371422124729</v>
       </c>
       <c r="K14" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L14" t="n">
+        <v>110.7437392117759</v>
+      </c>
+      <c r="M14" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>082249</t>
+          <t>082232</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>212.6920699181534</v>
+        <v>131.8575988513901</v>
       </c>
       <c r="C15" t="n">
-        <v>161.7240906179725</v>
+        <v>136.4539048793192</v>
       </c>
       <c r="D15" t="n">
-        <v>196.4809696543344</v>
+        <v>122.0093944139536</v>
       </c>
       <c r="E15" t="n">
-        <v>151.8604933460272</v>
+        <v>127.0892225257384</v>
       </c>
       <c r="F15" t="n">
-        <v>201.3894559433088</v>
+        <v>122.9622963857844</v>
       </c>
       <c r="G15" t="n">
-        <v>157.0533107869508</v>
+        <v>128.1539620165458</v>
       </c>
       <c r="H15" t="n">
-        <v>191.4390508646344</v>
+        <v>116.0493437364092</v>
       </c>
       <c r="I15" t="n">
-        <v>259.9188987033612</v>
+        <v>132.8775041235358</v>
       </c>
       <c r="J15" t="n">
-        <v>151.8604933460272</v>
+        <v>137.8569645371756</v>
       </c>
       <c r="K15" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L15" t="n">
+        <v>116.0493437364092</v>
+      </c>
+      <c r="M15" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>082245</t>
+          <t>082219</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>165.8835588948528</v>
+        <v>147.9757128530664</v>
       </c>
       <c r="C16" t="n">
-        <v>159.6992585597866</v>
+        <v>118.0201270621712</v>
       </c>
       <c r="D16" t="n">
-        <v>158.2202184077412</v>
+        <v>149.4484114551561</v>
       </c>
       <c r="E16" t="n">
-        <v>156.342419396842</v>
+        <v>120.4674644944625</v>
       </c>
       <c r="F16" t="n">
-        <v>162.1899749497945</v>
+        <v>154.5796415267286</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7703325066335</v>
+        <v>124.8688310912542</v>
       </c>
       <c r="H16" t="n">
-        <v>156.8317102959893</v>
+        <v>144.6211790705721</v>
       </c>
       <c r="I16" t="n">
-        <v>259.9188987033612</v>
+        <v>153.1686697073613</v>
       </c>
       <c r="J16" t="n">
-        <v>156.342419396842</v>
+        <v>123.2130839130635</v>
       </c>
       <c r="K16" t="n">
+        <v>257.1463099811214</v>
+      </c>
+      <c r="L16" t="n">
+        <v>118.0201270621712</v>
+      </c>
+      <c r="M16" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>082221</t>
+          <t>082218</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>196.5233293545778</v>
+        <v>255.0773079416254</v>
       </c>
       <c r="C17" t="n">
-        <v>163.9903724407527</v>
+        <v>260.2462218041611</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5677088217067</v>
+        <v>258.7795164696524</v>
       </c>
       <c r="E17" t="n">
-        <v>199.7041780511182</v>
+        <v>263.9348730539763</v>
       </c>
       <c r="F17" t="n">
-        <v>258.386029621706</v>
+        <v>263.2995870624527</v>
       </c>
       <c r="G17" t="n">
-        <v>203.0053650642597</v>
+        <v>268.4770463566642</v>
       </c>
       <c r="H17" t="n">
-        <v>260.5737591712066</v>
+        <v>259.2774619830653</v>
       </c>
       <c r="I17" t="n">
-        <v>259.9188987033612</v>
+        <v>124.6083860635864</v>
       </c>
       <c r="J17" t="n">
-        <v>163.9903724407527</v>
+        <v>129.7826513382145</v>
       </c>
       <c r="K17" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L17" t="n">
+        <v>124.6083860635864</v>
+      </c>
+      <c r="M17" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>082207</t>
+          <t>082210</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.6352753495338</v>
+        <v>165.781507595519</v>
       </c>
       <c r="C18" t="n">
-        <v>179.3102334018478</v>
+        <v>140.3127072644466</v>
       </c>
       <c r="D18" t="n">
-        <v>181.7746504166961</v>
+        <v>141.150568690556</v>
       </c>
       <c r="E18" t="n">
-        <v>184.4372219551465</v>
+        <v>130.250339708601</v>
       </c>
       <c r="F18" t="n">
-        <v>186.8766933646179</v>
+        <v>146.2772373083286</v>
       </c>
       <c r="G18" t="n">
-        <v>189.5262831424523</v>
+        <v>135.4275423332654</v>
       </c>
       <c r="H18" t="n">
-        <v>180.6845743432268</v>
+        <v>170.9665452514062</v>
       </c>
       <c r="I18" t="n">
-        <v>259.9188987033612</v>
+        <v>158.826736479133</v>
       </c>
       <c r="J18" t="n">
-        <v>176.6352753495338</v>
+        <v>132.9778844382256</v>
       </c>
       <c r="K18" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L18" t="n">
+        <v>130.250339708601</v>
+      </c>
+      <c r="M18" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>082241</t>
+          <t>082230</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>258.4078419681518</v>
+        <v>145.0142447006815</v>
       </c>
       <c r="C19" t="n">
-        <v>263.4428439220442</v>
+        <v>147.8455471312513</v>
       </c>
       <c r="D19" t="n">
-        <v>258.5720477127447</v>
+        <v>131.0059637008004</v>
       </c>
       <c r="E19" t="n">
-        <v>263.719924565791</v>
+        <v>135.9429827775375</v>
       </c>
       <c r="F19" t="n">
-        <v>181.5812198419701</v>
+        <v>135.3961455145437</v>
       </c>
       <c r="G19" t="n">
-        <v>186.5082671529474</v>
+        <v>140.3164435992515</v>
       </c>
       <c r="H19" t="n">
-        <v>259.3845061360139</v>
+        <v>136.0976320157271</v>
       </c>
       <c r="I19" t="n">
-        <v>259.9188987033612</v>
+        <v>149.6922318822414</v>
       </c>
       <c r="J19" t="n">
-        <v>181.5812198419701</v>
+        <v>152.6584849364764</v>
       </c>
       <c r="K19" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L19" t="n">
+        <v>131.0059637008004</v>
+      </c>
+      <c r="M19" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>082240</t>
+          <t>082244</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.608345880412</v>
+        <v>145.2611148457323</v>
       </c>
       <c r="C20" t="n">
-        <v>189.0752445336246</v>
+        <v>143.7984406954031</v>
       </c>
       <c r="D20" t="n">
-        <v>193.2665206054937</v>
+        <v>138.6870856795926</v>
       </c>
       <c r="E20" t="n">
-        <v>185.3125199929578</v>
+        <v>140.6899427165023</v>
       </c>
       <c r="F20" t="n">
-        <v>197.8030371086086</v>
+        <v>143.5951158455107</v>
       </c>
       <c r="G20" t="n">
-        <v>189.9982071054156</v>
+        <v>145.6979547518342</v>
       </c>
       <c r="H20" t="n">
-        <v>185.9057299485588</v>
+        <v>132.497422576321</v>
       </c>
       <c r="I20" t="n">
-        <v>259.9188987033612</v>
+        <v>150.4540717016237</v>
       </c>
       <c r="J20" t="n">
-        <v>185.3125199929578</v>
+        <v>148.991397546294</v>
       </c>
       <c r="K20" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L20" t="n">
+        <v>132.497422576321</v>
+      </c>
+      <c r="M20" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>082222</t>
+          <t>082234</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>198.5947691763727</v>
+        <v>147.9344414509708</v>
       </c>
       <c r="C21" t="n">
-        <v>203.7199234578941</v>
+        <v>146.2153062256725</v>
       </c>
       <c r="D21" t="n">
-        <v>200.9850864724688</v>
+        <v>145.7543178553854</v>
       </c>
       <c r="E21" t="n">
-        <v>206.0701182236799</v>
+        <v>143.8665916310881</v>
       </c>
       <c r="F21" t="n">
-        <v>203.30561792884</v>
+        <v>154.204946151879</v>
       </c>
       <c r="G21" t="n">
-        <v>208.2860440242675</v>
+        <v>148.8084024146838</v>
       </c>
       <c r="H21" t="n">
-        <v>199.4617177708177</v>
+        <v>145.0080493383366</v>
       </c>
       <c r="I21" t="n">
-        <v>259.9188987033612</v>
+        <v>137.1214725131081</v>
       </c>
       <c r="J21" t="n">
-        <v>198.5947691763727</v>
+        <v>135.0840838751343</v>
       </c>
       <c r="K21" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L21" t="n">
+        <v>135.0840838751343</v>
+      </c>
+      <c r="M21" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>082235</t>
+          <t>082248</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203.265849065303</v>
+        <v>247.4422494532821</v>
       </c>
       <c r="C22" t="n">
-        <v>231.9142337972795</v>
+        <v>252.635206304172</v>
       </c>
       <c r="D22" t="n">
-        <v>239.5745877625341</v>
+        <v>251.6668599550011</v>
       </c>
       <c r="E22" t="n">
-        <v>237.8366322373111</v>
+        <v>256.8508806213035</v>
       </c>
       <c r="F22" t="n">
-        <v>257.6681355313023</v>
+        <v>256.7748395340146</v>
       </c>
       <c r="G22" t="n">
-        <v>262.3568975237379</v>
+        <v>261.9637582699863</v>
       </c>
       <c r="H22" t="n">
-        <v>205.3983786720968</v>
+        <v>252.5532273542808</v>
       </c>
       <c r="I22" t="n">
-        <v>259.9188987033612</v>
+        <v>137.1779554817101</v>
       </c>
       <c r="J22" t="n">
-        <v>203.265849065303</v>
+        <v>142.3495705906683</v>
       </c>
       <c r="K22" t="n">
+        <v>247.4422494532821</v>
+      </c>
+      <c r="L22" t="n">
+        <v>137.1779554817101</v>
+      </c>
+      <c r="M22" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>082242</t>
+          <t>082211</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.0377431468836</v>
+        <v>250.9115958174749</v>
       </c>
       <c r="C23" t="n">
-        <v>224.359466130795</v>
+        <v>255.2609209163424</v>
       </c>
       <c r="D23" t="n">
-        <v>218.3020273020674</v>
+        <v>253.2575470248153</v>
       </c>
       <c r="E23" t="n">
-        <v>216.8073896189148</v>
+        <v>257.4953369597074</v>
       </c>
       <c r="F23" t="n">
-        <v>223.04010345747</v>
+        <v>258.3006646144995</v>
       </c>
       <c r="G23" t="n">
-        <v>221.7446880451567</v>
+        <v>262.537315479213</v>
       </c>
       <c r="H23" t="n">
-        <v>211.4289538762398</v>
+        <v>254.8334480613112</v>
       </c>
       <c r="I23" t="n">
-        <v>259.9188987033612</v>
+        <v>146.1149944060022</v>
       </c>
       <c r="J23" t="n">
-        <v>211.4289538762398</v>
+        <v>149.2918083936692</v>
       </c>
       <c r="K23" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L23" t="n">
+        <v>146.1149944060022</v>
+      </c>
+      <c r="M23" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>082205</t>
+          <t>082249</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>212.0337876176925</v>
+        <v>212.6920699181534</v>
       </c>
       <c r="C24" t="n">
-        <v>211.5475184052967</v>
+        <v>161.7240906179899</v>
       </c>
       <c r="D24" t="n">
-        <v>215.9522007339363</v>
+        <v>196.480969654335</v>
       </c>
       <c r="E24" t="n">
-        <v>213.9381833893801</v>
+        <v>151.8604933460274</v>
       </c>
       <c r="F24" t="n">
-        <v>218.4297798098375</v>
+        <v>201.3894559433085</v>
       </c>
       <c r="G24" t="n">
-        <v>217.8360630005956</v>
+        <v>157.0533107869508</v>
       </c>
       <c r="H24" t="n">
-        <v>214.0483579611822</v>
+        <v>191.4390508664289</v>
       </c>
       <c r="I24" t="n">
-        <v>259.9188987033612</v>
+        <v>217.1953256487497</v>
       </c>
       <c r="J24" t="n">
-        <v>211.5475184052967</v>
+        <v>166.010178052328</v>
       </c>
       <c r="K24" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L24" t="n">
+        <v>151.8604933460274</v>
+      </c>
+      <c r="M24" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>082202</t>
+          <t>082209</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>219.9933976569265</v>
+        <v>259.0935688729915</v>
       </c>
       <c r="C25" t="n">
-        <v>211.8208604656328</v>
+        <v>264.1984851565186</v>
       </c>
       <c r="D25" t="n">
-        <v>223.2462843010849</v>
+        <v>264.1850216999317</v>
       </c>
       <c r="E25" t="n">
-        <v>214.0687109922565</v>
+        <v>269.300843334787</v>
       </c>
       <c r="F25" t="n">
-        <v>226.3337678013394</v>
+        <v>268.1636946963504</v>
       </c>
       <c r="G25" t="n">
-        <v>216.3437567642946</v>
+        <v>273.3116397866803</v>
       </c>
       <c r="H25" t="n">
-        <v>216.3648871790246</v>
+        <v>264.2725911082575</v>
       </c>
       <c r="I25" t="n">
-        <v>259.9188987033612</v>
+        <v>153.9623057966357</v>
       </c>
       <c r="J25" t="n">
-        <v>211.8208604656328</v>
+        <v>159.1552626493124</v>
       </c>
       <c r="K25" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L25" t="n">
+        <v>153.9623057966357</v>
+      </c>
+      <c r="M25" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>082215</t>
+          <t>082221</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>222.6586492424948</v>
+        <v>187.1348442388264</v>
       </c>
       <c r="C26" t="n">
-        <v>225.0248880453656</v>
+        <v>162.0194155378841</v>
       </c>
       <c r="D26" t="n">
-        <v>219.2718717896392</v>
+        <v>173.2896218435033</v>
       </c>
       <c r="E26" t="n">
-        <v>222.7605619158156</v>
+        <v>159.9850280441349</v>
       </c>
       <c r="F26" t="n">
-        <v>215.6899492713578</v>
+        <v>177.3888858183817</v>
       </c>
       <c r="G26" t="n">
-        <v>218.9222523191532</v>
+        <v>164.5473439157489</v>
       </c>
       <c r="H26" t="n">
-        <v>220.8397672711008</v>
+        <v>191.3467616803213</v>
       </c>
       <c r="I26" t="n">
-        <v>259.9188987033612</v>
+        <v>182.1474899157882</v>
       </c>
       <c r="J26" t="n">
-        <v>215.6899492713578</v>
+        <v>154.9771215583536</v>
       </c>
       <c r="K26" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L26" t="n">
+        <v>154.9771215583536</v>
+      </c>
+      <c r="M26" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>082239</t>
+          <t>082245</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>218.9645863456306</v>
+        <v>165.8835588948527</v>
       </c>
       <c r="C27" t="n">
-        <v>223.5675579053463</v>
+        <v>159.6992585597866</v>
       </c>
       <c r="D27" t="n">
-        <v>224.1575430850262</v>
+        <v>158.2202184077412</v>
       </c>
       <c r="E27" t="n">
-        <v>228.7604675257814</v>
+        <v>156.3424193968417</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3097967223738</v>
+        <v>162.1899749497944</v>
       </c>
       <c r="G27" t="n">
-        <v>233.9334872861409</v>
+        <v>160.7703325066337</v>
       </c>
       <c r="H27" t="n">
-        <v>217.7180598010464</v>
+        <v>156.8317102959893</v>
       </c>
       <c r="I27" t="n">
-        <v>259.9188987033612</v>
+        <v>160.9880734116556</v>
       </c>
       <c r="J27" t="n">
-        <v>217.7180598010464</v>
+        <v>157.352447195226</v>
       </c>
       <c r="K27" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L27" t="n">
+        <v>156.3424193968417</v>
+      </c>
+      <c r="M27" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>082204</t>
+          <t>082202</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>287.1585451459029</v>
+        <v>219.9933976569263</v>
       </c>
       <c r="C28" t="n">
-        <v>231.2248077062576</v>
+        <v>211.8208604655661</v>
       </c>
       <c r="D28" t="n">
-        <v>293.6991961179359</v>
+        <v>223.2462843010849</v>
       </c>
       <c r="E28" t="n">
-        <v>281.6346392498535</v>
+        <v>214.0687109922559</v>
       </c>
       <c r="F28" t="n">
-        <v>263.9684600603975</v>
+        <v>226.3337678013396</v>
       </c>
       <c r="G28" t="n">
-        <v>264.9154615144201</v>
+        <v>216.3437567642922</v>
       </c>
       <c r="H28" t="n">
-        <v>220.6139159508915</v>
+        <v>216.3648871788589</v>
       </c>
       <c r="I28" t="n">
-        <v>259.9188987033612</v>
+        <v>160.0157322665565</v>
       </c>
       <c r="J28" t="n">
-        <v>220.6139159508915</v>
+        <v>158.4880758440269</v>
       </c>
       <c r="K28" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L28" t="n">
+        <v>158.4880758440269</v>
+      </c>
+      <c r="M28" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>082233</t>
+          <t>082239</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.4821394995603</v>
+        <v>218.9645863456306</v>
       </c>
       <c r="C29" t="n">
-        <v>224.9848752037916</v>
+        <v>223.5675579053463</v>
       </c>
       <c r="D29" t="n">
-        <v>238.006100212053</v>
+        <v>224.1575430850262</v>
       </c>
       <c r="E29" t="n">
-        <v>242.0769740956084</v>
+        <v>228.76046752578</v>
       </c>
       <c r="F29" t="n">
-        <v>241.7460140925533</v>
+        <v>229.309796722374</v>
       </c>
       <c r="G29" t="n">
-        <v>275.4977692560318</v>
+        <v>233.9334872861421</v>
       </c>
       <c r="H29" t="n">
-        <v>234.0329075789024</v>
+        <v>217.7180597978665</v>
       </c>
       <c r="I29" t="n">
-        <v>259.9188987033612</v>
+        <v>170.2013190207957</v>
       </c>
       <c r="J29" t="n">
-        <v>224.9848752037916</v>
+        <v>172.89126987854</v>
       </c>
       <c r="K29" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L29" t="n">
+        <v>170.2013190207957</v>
+      </c>
+      <c r="M29" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>082206</t>
+          <t>082235</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>251.6628740948696</v>
+        <v>192.4529986670011</v>
       </c>
       <c r="C30" t="n">
-        <v>226.327176133123</v>
+        <v>194.662486065212</v>
       </c>
       <c r="D30" t="n">
-        <v>234.9855024574727</v>
+        <v>174.2447380976132</v>
       </c>
       <c r="E30" t="n">
-        <v>245.8367719687477</v>
+        <v>179.2006663445112</v>
       </c>
       <c r="F30" t="n">
-        <v>256.6838109326928</v>
+        <v>178.7404051005074</v>
       </c>
       <c r="G30" t="n">
-        <v>262.0768960855288</v>
+        <v>183.7240486783488</v>
       </c>
       <c r="H30" t="n">
-        <v>229.6657078029944</v>
+        <v>187.6570701783093</v>
       </c>
       <c r="I30" t="n">
-        <v>259.9188987033612</v>
+        <v>197.6459555178914</v>
       </c>
       <c r="J30" t="n">
-        <v>226.327176133123</v>
+        <v>199.855442916104</v>
       </c>
       <c r="K30" t="n">
+        <v>257.1463099811214</v>
+      </c>
+      <c r="L30" t="n">
+        <v>174.2447380976132</v>
+      </c>
+      <c r="M30" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>082251</t>
+          <t>082207</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>231.5288203875634</v>
+        <v>176.6352753495338</v>
       </c>
       <c r="C31" t="n">
-        <v>229.6376895024651</v>
+        <v>179.3102334018478</v>
       </c>
       <c r="D31" t="n">
-        <v>236.1266199878062</v>
+        <v>181.7746504166962</v>
       </c>
       <c r="E31" t="n">
-        <v>234.4442289165908</v>
+        <v>184.4372219551466</v>
       </c>
       <c r="F31" t="n">
-        <v>233.0183595217303</v>
+        <v>186.8766933646184</v>
       </c>
       <c r="G31" t="n">
-        <v>232.0866188532972</v>
+        <v>189.5262831424526</v>
       </c>
       <c r="H31" t="n">
-        <v>231.6544693851821</v>
+        <v>180.6845743432266</v>
       </c>
       <c r="I31" t="n">
-        <v>259.9188987033612</v>
+        <v>175.0181007387397</v>
       </c>
       <c r="J31" t="n">
-        <v>229.6376895024651</v>
+        <v>178.3243939913028</v>
       </c>
       <c r="K31" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L31" t="n">
+        <v>175.0181007387397</v>
+      </c>
+      <c r="M31" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>082246</t>
+          <t>082229</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.7607255650589</v>
+        <v>258.6822793038767</v>
       </c>
       <c r="C32" t="n">
-        <v>237.2524278452169</v>
+        <v>262.9759645488957</v>
       </c>
       <c r="D32" t="n">
-        <v>246.309213060389</v>
+        <v>263.6314215999635</v>
       </c>
       <c r="E32" t="n">
-        <v>235.4543534847747</v>
+        <v>267.5142291017445</v>
       </c>
       <c r="F32" t="n">
-        <v>251.5018194089617</v>
+        <v>267.146059552269</v>
       </c>
       <c r="G32" t="n">
-        <v>240.6462501787849</v>
+        <v>271.0036256303357</v>
       </c>
       <c r="H32" t="n">
-        <v>240.5451222022912</v>
+        <v>263.8644897403119</v>
       </c>
       <c r="I32" t="n">
-        <v>259.9188987033612</v>
+        <v>178.0599399024051</v>
       </c>
       <c r="J32" t="n">
-        <v>235.4543534847747</v>
+        <v>182.9082142559032</v>
       </c>
       <c r="K32" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L32" t="n">
+        <v>178.0599399024051</v>
+      </c>
+      <c r="M32" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>082214</t>
+          <t>082228</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>251.641680801097</v>
+        <v>253.2288847175738</v>
       </c>
       <c r="C33" t="n">
-        <v>255.7594689050962</v>
+        <v>254.24445595655</v>
       </c>
       <c r="D33" t="n">
-        <v>255.3848080385885</v>
+        <v>256.6900935699668</v>
       </c>
       <c r="E33" t="n">
-        <v>259.2051139583645</v>
+        <v>257.8004981663801</v>
       </c>
       <c r="F33" t="n">
-        <v>260.4242055683031</v>
+        <v>261.8492760485242</v>
       </c>
       <c r="G33" t="n">
-        <v>264.2867082048651</v>
+        <v>262.9643082123418</v>
       </c>
       <c r="H33" t="n">
-        <v>256.3761913737247</v>
+        <v>256.7571872000486</v>
       </c>
       <c r="I33" t="n">
-        <v>259.9188987033612</v>
+        <v>178.4396023796604</v>
       </c>
       <c r="J33" t="n">
-        <v>251.641680801097</v>
+        <v>179.797897858195</v>
       </c>
       <c r="K33" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L33" t="n">
+        <v>178.4396023796604</v>
+      </c>
+      <c r="M33" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>082220</t>
+          <t>082204</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>253.6896306180314</v>
+        <v>205.2261988350039</v>
       </c>
       <c r="C34" t="n">
-        <v>253.3197796242468</v>
+        <v>185.680116079366</v>
       </c>
       <c r="D34" t="n">
-        <v>256.4555611381101</v>
+        <v>196.9233346113105</v>
       </c>
       <c r="E34" t="n">
-        <v>251.8229384954622</v>
+        <v>184.158444630055</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0253553716475</v>
+        <v>201.2871742237427</v>
       </c>
       <c r="G34" t="n">
-        <v>255.9605282710712</v>
+        <v>187.8452284388213</v>
       </c>
       <c r="H34" t="n">
-        <v>258.1650300943708</v>
+        <v>207.8419429227543</v>
       </c>
       <c r="I34" t="n">
-        <v>259.9188987033612</v>
+        <v>194.3933331997149</v>
       </c>
       <c r="J34" t="n">
-        <v>251.8229384954622</v>
+        <v>178.918687212072</v>
       </c>
       <c r="K34" t="n">
+        <v>254.3737212588816</v>
+      </c>
+      <c r="L34" t="n">
+        <v>178.918687212072</v>
+      </c>
+      <c r="M34" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>082238</t>
+          <t>082241</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>252.5655742576089</v>
+        <v>258.4078419681514</v>
       </c>
       <c r="C35" t="n">
-        <v>338.807880997798</v>
+        <v>263.4428439220385</v>
       </c>
       <c r="D35" t="n">
-        <v>335.7982820169017</v>
+        <v>258.5391874583657</v>
       </c>
       <c r="E35" t="n">
-        <v>360.7977682087816</v>
+        <v>263.6774635722465</v>
       </c>
       <c r="F35" t="n">
-        <v>340.38450788103</v>
+        <v>181.0127380495121</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0085001934587</v>
+        <v>185.8637582106057</v>
       </c>
       <c r="H35" t="n">
-        <v>255.7180318647812</v>
+        <v>259.3845061360099</v>
       </c>
       <c r="I35" t="n">
-        <v>259.9188987033612</v>
+        <v>263.5998848608025</v>
       </c>
       <c r="J35" t="n">
-        <v>252.5655742576089</v>
+        <v>268.6295160127714</v>
       </c>
       <c r="K35" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L35" t="n">
+        <v>181.0127380495121</v>
+      </c>
+      <c r="M35" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>082211</t>
+          <t>082240</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>252.670129489293</v>
+        <v>202.6083458804119</v>
       </c>
       <c r="C36" t="n">
-        <v>257.0928467485817</v>
+        <v>189.075244533625</v>
       </c>
       <c r="D36" t="n">
-        <v>260.890664965005</v>
+        <v>193.2665206054934</v>
       </c>
       <c r="E36" t="n">
-        <v>261.180050162828</v>
+        <v>185.3123163234695</v>
       </c>
       <c r="F36" t="n">
-        <v>263.7472535743532</v>
+        <v>197.8030371086087</v>
       </c>
       <c r="G36" t="n">
-        <v>270.3715646815637</v>
+        <v>188.210975682484</v>
       </c>
       <c r="H36" t="n">
-        <v>256.4809465460343</v>
+        <v>184.2196991089275</v>
       </c>
       <c r="I36" t="n">
-        <v>259.9188987033612</v>
+        <v>204.4395188490314</v>
       </c>
       <c r="J36" t="n">
-        <v>252.670129489293</v>
+        <v>191.912204943639</v>
       </c>
       <c r="K36" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L36" t="n">
+        <v>184.2196991089275</v>
+      </c>
+      <c r="M36" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>082228</t>
+          <t>082222</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>253.2288847175739</v>
+        <v>198.5947691763726</v>
       </c>
       <c r="C37" t="n">
-        <v>254.2444559565495</v>
+        <v>203.719923457894</v>
       </c>
       <c r="D37" t="n">
-        <v>256.6900935699581</v>
+        <v>200.9850864724699</v>
       </c>
       <c r="E37" t="n">
-        <v>257.8004981663781</v>
+        <v>206.0701182236797</v>
       </c>
       <c r="F37" t="n">
-        <v>261.8492760485136</v>
+        <v>203.30561792884</v>
       </c>
       <c r="G37" t="n">
-        <v>262.9643082123368</v>
+        <v>208.2860440242674</v>
       </c>
       <c r="H37" t="n">
-        <v>256.7571872000469</v>
+        <v>199.461717770818</v>
       </c>
       <c r="I37" t="n">
-        <v>259.9188987033612</v>
+        <v>185.9637865984902</v>
       </c>
       <c r="J37" t="n">
-        <v>253.2288847175739</v>
+        <v>191.0078610634378</v>
       </c>
       <c r="K37" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L37" t="n">
+        <v>185.9637865984902</v>
+      </c>
+      <c r="M37" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>082218</t>
+          <t>082206</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>256.3526280402415</v>
+        <v>210.2173577508929</v>
       </c>
       <c r="C38" t="n">
-        <v>262.1413638102986</v>
+        <v>192.2584949033039</v>
       </c>
       <c r="D38" t="n">
-        <v>278.5405523950821</v>
+        <v>206.4732732283973</v>
       </c>
       <c r="E38" t="n">
-        <v>269.6304779538987</v>
+        <v>187.096429165608</v>
       </c>
       <c r="F38" t="n">
-        <v>364.9356565930861</v>
+        <v>206.3301210968728</v>
       </c>
       <c r="G38" t="n">
-        <v>273.2296155411715</v>
+        <v>187.8997515240764</v>
       </c>
       <c r="H38" t="n">
-        <v>261.0322693138748</v>
+        <v>201.6904433896228</v>
       </c>
       <c r="I38" t="n">
-        <v>259.9188987033612</v>
+        <v>215.4103146017835</v>
       </c>
       <c r="J38" t="n">
-        <v>256.3526280402415</v>
+        <v>197.4514517542101</v>
       </c>
       <c r="K38" t="n">
+        <v>254.3737212588816</v>
+      </c>
+      <c r="L38" t="n">
+        <v>187.096429165608</v>
+      </c>
+      <c r="M38" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>082203</t>
+          <t>082217</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>258.089576659397</v>
+        <v>257.991357855901</v>
       </c>
       <c r="C39" t="n">
-        <v>262.2698574819869</v>
+        <v>260.6050746322573</v>
       </c>
       <c r="D39" t="n">
-        <v>262.9748504033002</v>
+        <v>262.5942946294115</v>
       </c>
       <c r="E39" t="n">
-        <v>266.97200374574</v>
+        <v>265.3471744221032</v>
       </c>
       <c r="F39" t="n">
-        <v>267.4266986789424</v>
+        <v>264.9051869558501</v>
       </c>
       <c r="G39" t="n">
-        <v>271.5211758733069</v>
+        <v>268.0110532149852</v>
       </c>
       <c r="H39" t="n">
-        <v>262.6954854515729</v>
+        <v>263.0298731273071</v>
       </c>
       <c r="I39" t="n">
-        <v>259.9188987033612</v>
+        <v>191.1172876744913</v>
       </c>
       <c r="J39" t="n">
-        <v>258.089576659397</v>
+        <v>195.2899733927878</v>
       </c>
       <c r="K39" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L39" t="n">
+        <v>191.1172876744913</v>
+      </c>
+      <c r="M39" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>082212</t>
+          <t>082251</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>258.6644358549511</v>
+        <v>231.5288203875634</v>
       </c>
       <c r="C40" t="n">
-        <v>262.3253555870996</v>
+        <v>229.6376895058246</v>
       </c>
       <c r="D40" t="n">
-        <v>262.875365953203</v>
+        <v>236.1266199878065</v>
       </c>
       <c r="E40" t="n">
-        <v>266.2742126668363</v>
+        <v>234.4442289409943</v>
       </c>
       <c r="F40" t="n">
-        <v>266.280899881446</v>
+        <v>233.0183595217352</v>
       </c>
       <c r="G40" t="n">
-        <v>269.4733129671823</v>
+        <v>232.0866188538586</v>
       </c>
       <c r="H40" t="n">
-        <v>263.6735269724902</v>
+        <v>231.6544693851808</v>
       </c>
       <c r="I40" t="n">
-        <v>259.9188987033612</v>
+        <v>195.1347459607871</v>
       </c>
       <c r="J40" t="n">
-        <v>258.6644358549511</v>
+        <v>192.275967196213</v>
       </c>
       <c r="K40" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L40" t="n">
+        <v>192.275967196213</v>
+      </c>
+      <c r="M40" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>082229</t>
+          <t>082205</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>258.682279303913</v>
+        <v>212.0337876176924</v>
       </c>
       <c r="C41" t="n">
-        <v>262.9759645489766</v>
+        <v>211.5475184052968</v>
       </c>
       <c r="D41" t="n">
-        <v>263.6314215999615</v>
+        <v>215.0106303580149</v>
       </c>
       <c r="E41" t="n">
-        <v>267.5142290967465</v>
+        <v>212.2955014914106</v>
       </c>
       <c r="F41" t="n">
-        <v>267.1460595522692</v>
+        <v>216.702778700653</v>
       </c>
       <c r="G41" t="n">
-        <v>271.0036256303354</v>
+        <v>215.5607224936408</v>
       </c>
       <c r="H41" t="n">
-        <v>263.8644897403271</v>
+        <v>214.0483579578782</v>
       </c>
       <c r="I41" t="n">
-        <v>259.9188987033612</v>
+        <v>195.0472855153517</v>
       </c>
       <c r="J41" t="n">
-        <v>258.682279303913</v>
+        <v>198.0441974088847</v>
       </c>
       <c r="K41" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L41" t="n">
+        <v>195.0472855153517</v>
+      </c>
+      <c r="M41" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>082209</t>
+          <t>082231</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>259.0935688729898</v>
+        <v>259.774123269886</v>
       </c>
       <c r="C42" t="n">
-        <v>264.1984851565174</v>
+        <v>263.0912915705394</v>
       </c>
       <c r="D42" t="n">
-        <v>264.1850216999323</v>
+        <v>258.8874943482362</v>
       </c>
       <c r="E42" t="n">
-        <v>269.30084333478</v>
+        <v>262.0077526256176</v>
       </c>
       <c r="F42" t="n">
-        <v>268.1636946964006</v>
+        <v>264.0745985797864</v>
       </c>
       <c r="G42" t="n">
-        <v>273.311639786648</v>
+        <v>267.2019351463981</v>
       </c>
       <c r="H42" t="n">
-        <v>264.2725911082699</v>
+        <v>264.8398347602366</v>
       </c>
       <c r="I42" t="n">
-        <v>259.9188987033612</v>
+        <v>195.1464472563042</v>
       </c>
       <c r="J42" t="n">
-        <v>259.0935688729898</v>
+        <v>200.3346970214281</v>
       </c>
       <c r="K42" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L42" t="n">
+        <v>195.1464472563042</v>
+      </c>
+      <c r="M42" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>082217</t>
+          <t>082233</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>259.6302965141818</v>
+        <v>231.1115947339045</v>
       </c>
       <c r="C43" t="n">
-        <v>262.1487605492916</v>
+        <v>223.2191074180422</v>
       </c>
       <c r="D43" t="n">
-        <v>265.1211607695935</v>
+        <v>228.5677704223671</v>
       </c>
       <c r="E43" t="n">
-        <v>270.2115889904089</v>
+        <v>219.8719392166988</v>
       </c>
       <c r="F43" t="n">
-        <v>267.4938347725172</v>
+        <v>233.1824843608551</v>
       </c>
       <c r="G43" t="n">
-        <v>274.1666827083059</v>
+        <v>224.0609024799641</v>
       </c>
       <c r="H43" t="n">
-        <v>264.9923983745473</v>
+        <v>228.7496604861263</v>
       </c>
       <c r="I43" t="n">
-        <v>259.9188987033612</v>
+        <v>207.6459600470501</v>
       </c>
       <c r="J43" t="n">
-        <v>259.6302965141818</v>
+        <v>197.2282683252729</v>
       </c>
       <c r="K43" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L43" t="n">
+        <v>197.2282683252729</v>
+      </c>
+      <c r="M43" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>082213</t>
+          <t>082242</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>259.6779161988288</v>
+        <v>230.0377431468839</v>
       </c>
       <c r="C44" t="n">
-        <v>262.9318751625242</v>
+        <v>224.3594661307934</v>
       </c>
       <c r="D44" t="n">
-        <v>260.0220688672514</v>
+        <v>218.3020273020664</v>
       </c>
       <c r="E44" t="n">
-        <v>263.5685122532076</v>
+        <v>216.8073896189157</v>
       </c>
       <c r="F44" t="n">
-        <v>265.211390738071</v>
+        <v>223.0401034574692</v>
       </c>
       <c r="G44" t="n">
-        <v>268.7596985594676</v>
+        <v>221.7446880451575</v>
       </c>
       <c r="H44" t="n">
-        <v>264.7242055066001</v>
+        <v>211.4289538760554</v>
       </c>
       <c r="I44" t="n">
-        <v>259.9188987033612</v>
+        <v>235.2306999977798</v>
       </c>
       <c r="J44" t="n">
-        <v>259.6779161988288</v>
+        <v>229.5524229816917</v>
       </c>
       <c r="K44" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L44" t="n">
+        <v>211.4289538760554</v>
+      </c>
+      <c r="M44" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>082231</t>
+          <t>082227</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>259.7741232658878</v>
+        <v>258.4505051772994</v>
       </c>
       <c r="C45" t="n">
-        <v>263.0912917907895</v>
+        <v>262.7805953876222</v>
       </c>
       <c r="D45" t="n">
-        <v>261.8073348950996</v>
+        <v>263.3280907749752</v>
       </c>
       <c r="E45" t="n">
-        <v>264.9860081095145</v>
+        <v>267.6155901558553</v>
       </c>
       <c r="F45" t="n">
-        <v>266.9933193884341</v>
+        <v>262.8692626866762</v>
       </c>
       <c r="G45" t="n">
-        <v>270.1786477832349</v>
+        <v>266.8237641037759</v>
       </c>
       <c r="H45" t="n">
-        <v>264.8398347564048</v>
+        <v>263.2977266984083</v>
       </c>
       <c r="I45" t="n">
-        <v>259.9188987033612</v>
+        <v>211.594199808896</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7741232658878</v>
+        <v>216.5314298101446</v>
       </c>
       <c r="K45" t="n">
+        <v>258.5326043422413</v>
+      </c>
+      <c r="L45" t="n">
+        <v>211.594199808896</v>
+      </c>
+      <c r="M45" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>082227</t>
+          <t>082215</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>259.8401218833938</v>
+        <v>222.6586492424948</v>
       </c>
       <c r="C46" t="n">
-        <v>264.6453624863678</v>
+        <v>225.0248880453655</v>
       </c>
       <c r="D46" t="n">
-        <v>265.5235193782798</v>
+        <v>218.130978460456</v>
       </c>
       <c r="E46" t="n">
-        <v>270.3047771754616</v>
+        <v>221.1463624287115</v>
       </c>
       <c r="F46" t="n">
-        <v>267.1103782415547</v>
+        <v>214.824567010652</v>
       </c>
       <c r="G46" t="n">
-        <v>487.5117669157336</v>
+        <v>217.6411576557856</v>
       </c>
       <c r="H46" t="n">
-        <v>264.9244607691049</v>
+        <v>220.8397672711001</v>
       </c>
       <c r="I46" t="n">
-        <v>259.9188987033612</v>
+        <v>226.6683283242379</v>
       </c>
       <c r="J46" t="n">
-        <v>259.8401218833938</v>
+        <v>229.329121116349</v>
       </c>
       <c r="K46" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L46" t="n">
+        <v>214.824567010652</v>
+      </c>
+      <c r="M46" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>082224</t>
+          <t>082238</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>259.893336309245</v>
+        <v>241.014038779384</v>
       </c>
       <c r="C47" t="n">
-        <v>263.8152870753908</v>
+        <v>239.7055383378386</v>
       </c>
       <c r="D47" t="n">
-        <v>265.3704697005023</v>
+        <v>246.2007694813013</v>
       </c>
       <c r="E47" t="n">
-        <v>270.3048071460927</v>
+        <v>244.3735567909422</v>
       </c>
       <c r="F47" t="n">
-        <v>269.3809322523705</v>
+        <v>248.4342222942625</v>
       </c>
       <c r="G47" t="n">
-        <v>278.240764152404</v>
+        <v>246.1395222345493</v>
       </c>
       <c r="H47" t="n">
-        <v>265.0885469979312</v>
+        <v>241.3212698915113</v>
       </c>
       <c r="I47" t="n">
-        <v>259.9188987033612</v>
+        <v>228.7568054749985</v>
       </c>
       <c r="J47" t="n">
-        <v>259.893336309245</v>
+        <v>228.3302583708595</v>
       </c>
       <c r="K47" t="n">
+        <v>255.7600156200015</v>
+      </c>
+      <c r="L47" t="n">
+        <v>228.3302583708595</v>
+      </c>
+      <c r="M47" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>082208</t>
+          <t>082246</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>259.9188933969185</v>
+        <v>251.7607255650591</v>
       </c>
       <c r="C48" t="n">
-        <v>427.5663219859874</v>
+        <v>237.2524278524794</v>
       </c>
       <c r="D48" t="n">
-        <v>420.6153559259669</v>
+        <v>246.3092130603888</v>
       </c>
       <c r="E48" t="n">
-        <v>424.4661347933937</v>
+        <v>235.4543534847755</v>
       </c>
       <c r="F48" t="n">
-        <v>428.7709639131983</v>
+        <v>251.5018194089615</v>
       </c>
       <c r="G48" t="n">
-        <v>477.506980865187</v>
+        <v>240.6462501787856</v>
       </c>
       <c r="H48" t="n">
-        <v>269.3464994594992</v>
+        <v>240.5451222040085</v>
       </c>
       <c r="I48" t="n">
-        <v>259.9188987033612</v>
+        <v>256.9536824159493</v>
       </c>
       <c r="J48" t="n">
-        <v>259.9188933969185</v>
+        <v>242.4321636674916</v>
       </c>
       <c r="K48" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L48" t="n">
+        <v>235.4543534847755</v>
+      </c>
+      <c r="M48" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>082248</t>
+          <t>082220</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>592.4499819440426</v>
+        <v>253.6896306169602</v>
       </c>
       <c r="C49" t="n">
-        <v>607.3664543156784</v>
+        <v>253.319779624252</v>
       </c>
       <c r="D49" t="n">
-        <v>562.8121395946058</v>
+        <v>254.6482856157947</v>
       </c>
       <c r="E49" t="n">
-        <v>637.3898323296301</v>
+        <v>250.3780860702919</v>
       </c>
       <c r="F49" t="n">
-        <v>600.8404188124691</v>
+        <v>259.1788747957688</v>
       </c>
       <c r="G49" t="n">
-        <v>653.6209030858678</v>
+        <v>254.5720725038191</v>
       </c>
       <c r="H49" t="n">
-        <v>284.6942686904235</v>
+        <v>258.1650300943651</v>
       </c>
       <c r="I49" t="n">
-        <v>259.9188987033612</v>
+        <v>258.8747927268647</v>
       </c>
       <c r="J49" t="n">
-        <v>259.9188987033612</v>
+        <v>258.4936793920899</v>
       </c>
       <c r="K49" t="n">
+        <v>259.9188987033612</v>
+      </c>
+      <c r="L49" t="n">
+        <v>250.3780860702919</v>
+      </c>
+      <c r="M49" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>082226</t>
+          <t>082208</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>259.9393078647843</v>
+        <v>254.283066475625</v>
       </c>
       <c r="C50" t="n">
-        <v>265.1117555813128</v>
+        <v>258.8784138891363</v>
       </c>
       <c r="D50" t="n">
-        <v>265.1242332094338</v>
+        <v>259.1712266469008</v>
       </c>
       <c r="E50" t="n">
-        <v>270.3048124184791</v>
+        <v>263.7772645782892</v>
       </c>
       <c r="F50" t="n">
-        <v>270.3048123047826</v>
+        <v>264.2927853851892</v>
       </c>
       <c r="G50" t="n">
-        <v>275.2127556401985</v>
+        <v>268.9057553342474</v>
       </c>
       <c r="H50" t="n">
-        <v>265.0960513697154</v>
+        <v>259.451915382329</v>
       </c>
       <c r="I50" t="n">
-        <v>259.9188987033612</v>
+        <v>255.9084582660893</v>
       </c>
       <c r="J50" t="n">
-        <v>259.9188987033612</v>
+        <v>260.629864639346</v>
       </c>
       <c r="K50" t="n">
+        <v>255.7600156200015</v>
+      </c>
+      <c r="L50" t="n">
+        <v>254.283066475625</v>
+      </c>
+      <c r="M50" t="n">
         <v>48</v>
       </c>
     </row>
